--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4347034C-3545-4B9C-9A90-476A37E237C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2A5720-ADE3-403C-9E87-1E04A2AF349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>PCB</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Polyfuse</t>
   </si>
   <si>
-    <t>Presupuesto RCK</t>
-  </si>
-  <si>
     <t>Cable</t>
   </si>
   <si>
@@ -117,6 +114,45 @@
   </si>
   <si>
     <t xml:space="preserve">https://es.aliexpress.com/i/32665975717.html </t>
+  </si>
+  <si>
+    <t>USB_C_Receptable_HRO_TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0X5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>D_SOD-123</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>MountinHole_2.2mm_M2_Pad_Via</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Fuse_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Presupuesto RCK v1.0</t>
+  </si>
+  <si>
+    <t>ATmega32U4-AU</t>
+  </si>
+  <si>
+    <t>CD74HC4067M</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-SD</t>
+  </si>
+  <si>
+    <t>Presupuesto RCK v0.1</t>
   </si>
 </sst>
 </file>
@@ -464,11 +500,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,65 +562,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -853,16 +892,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D5FC17-968F-4BF1-A881-90D470F45315}">
-  <dimension ref="C1:H26"/>
+  <dimension ref="C1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -871,265 +910,307 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="H4" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <f>E5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="26" t="s">
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5">
+        <v>97</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <f t="shared" ref="G6:G21" si="0">E6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="13">
-        <f>E5*F5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
-        <f t="shared" ref="G6:G21" si="0">E6*F6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="5">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9">
-        <v>97</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>23</v>
+      <c r="H16" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14">
+      <c r="D18" s="12"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
+      <c r="D19" s="12"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="D20" s="12"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="1"/>
@@ -1137,10 +1218,10 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="F23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="10">
         <f>SUM(G5:G21)</f>
         <v>97</v>
       </c>
@@ -1151,25 +1232,285 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="21">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <f>E29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <f t="shared" ref="G30:G41" si="1">E30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="5">
+        <v>7</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="10">
+        <f>SUM(G29:G41)</f>
+        <v>2</v>
+      </c>
+      <c r="H43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C26:H26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1" xr:uid="{641535E9-5D6D-4000-A937-F9634DC6744A}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>
+    <hyperlink ref="H39" r:id="rId3" xr:uid="{14FC5BAC-15E0-4679-B98D-0B28D0982BA5}"/>
+    <hyperlink ref="H29" r:id="rId4" xr:uid="{544E10BF-9BE2-4C3F-8C6F-AE2227BA7E82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E055DB-4291-4AFE-85FE-1604C53F0C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E4AD9-8CED-4DE5-8E6F-7B6A093905D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
   <sheets>
     <sheet name="RCK v0.1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
   <si>
     <t>PCB</t>
   </si>
@@ -100,24 +100,12 @@
     <t>Referencias</t>
   </si>
   <si>
-    <t>Switch MX RGB Silent Black</t>
-  </si>
-  <si>
     <t>Cantidad (min)</t>
   </si>
   <si>
-    <t>https://xtrfy.com/keyboard-switches/cherry-mx-silent-black-switches/</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Precio unitario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://es.aliexpress.com/i/32665975717.html </t>
-  </si>
-  <si>
     <t>USB_C_Receptable_HRO_TYPE-C-31-M-12</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>Crystal_SMD_HC49-SD</t>
   </si>
   <si>
-    <t>Presupuesto RCK v0.1</t>
-  </si>
-  <si>
     <t>C_1206_3216Metric</t>
   </si>
   <si>
@@ -187,10 +172,67 @@
     <t>TOTAL INVERTIDO</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/</t>
+    <t>https://es.aliexpress.com/item/32980039972.html</t>
+  </si>
+  <si>
+    <t>I already have</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/32641663497.html</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/32785228491.html</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/32774150552.html</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005002887019519.html</t>
+  </si>
+  <si>
+    <t>1N4148W</t>
+  </si>
+  <si>
+    <t>Not needed</t>
+  </si>
+  <si>
+    <t>16MHz</t>
+  </si>
+  <si>
+    <t>500mA</t>
+  </si>
+  <si>
+    <t>PASTOR</t>
+  </si>
+  <si>
+    <t>SK6812_RBGCW</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005004438383771.html</t>
+  </si>
+  <si>
+    <t>buscar otro</t>
+  </si>
+  <si>
+    <t>Cable en espiral</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>Switch MX RGB Black</t>
+  </si>
+  <si>
+    <t>Gateron</t>
+  </si>
+  <si>
+    <t>Estabilizadores</t>
+  </si>
+  <si>
+    <t>Lubricadores?</t>
   </si>
 </sst>
 </file>
@@ -200,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +281,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +302,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -573,6 +634,156 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -580,20 +791,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,7 +808,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,71 +905,120 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -690,6 +1026,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -998,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDB6F61-D6DE-4FBA-93DA-2A840613EC93}">
-  <dimension ref="C1:I26"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1350,7 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1018,431 +1359,484 @@
   <sheetData>
     <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="23"/>
-      <c r="D4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="42"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="42"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="49"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="64"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="25">
-        <v>4</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26">
-        <f>F5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="26">
-        <f t="shared" ref="H6:H24" si="0">F6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="14">
         <v>2</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="13" t="s">
+      <c r="G12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="13">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="13">
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="13">
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
         <v>4</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="G14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="E19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="13">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28">
+        <v>5</v>
+      </c>
+      <c r="H22" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29">
+        <f>F24*G24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="13">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H22" s="26">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="13">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="2" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>97</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="18">
+        <f>F25*G25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="6">
-        <f>SUM(H5:H24)</f>
-        <v>6.5</v>
+      <c r="D26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="34">
+        <v>1</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3">
+        <f>SUM(H5:H26)</f>
+        <v>12.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E12:E24"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I21" r:id="rId1" xr:uid="{7A887569-F8BD-41AB-AD44-ADFDC519C847}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{27C31205-33E1-4406-83BD-65771BB7DCDA}"/>
-    <hyperlink ref="I22" r:id="rId3" xr:uid="{C7BB9085-F20A-45E9-8A12-EE7A0C4DCCA5}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{0DCC4C19-330A-40FD-BDB9-7039A2C47C7F}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{EAE8151C-6368-4C35-8B35-B6C4D1371B94}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{AA09485C-6D31-48D0-9702-718A957A4ADB}"/>
+    <hyperlink ref="I26" r:id="rId4" xr:uid="{86E8ABDF-411A-499A-A30E-817F85E35180}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{632DB892-E786-41BD-BB02-8A3A09C5D855}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{85BF9781-90A6-464C-969E-6712C002455E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D5FC17-968F-4BF1-A881-90D470F45315}">
-  <dimension ref="C1:I28"/>
+  <dimension ref="C1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,458 +1844,514 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="10" t="s">
+    <row r="1" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="23"/>
-      <c r="D4" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>16</v>
+      </c>
+      <c r="H5" s="53">
+        <v>3.77</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="74"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>16</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>16</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="74"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>16</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>20</v>
+      </c>
+      <c r="H9" s="59">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="71"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>20</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="72"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="25">
-        <v>5</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26">
-        <f>F5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="26">
-        <f t="shared" ref="H6:H26" si="0">F6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="13">
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="14">
         <v>97</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="17">
+        <v>100</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="13">
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6">
         <v>97</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="G13" s="6">
+        <v>100</v>
+      </c>
+      <c r="H13" s="8">
+        <v>13.26</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="13">
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
         <v>10</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="D18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>9.82</v>
+      </c>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
+      <c r="D20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="13">
+      <c r="D21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="6">
         <v>97</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>22</v>
+      <c r="G21" s="6">
+        <v>110</v>
+      </c>
+      <c r="H21" s="8">
+        <v>31.36</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="13">
+      <c r="C22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28">
         <v>5</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29">
+        <f>F25*G25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="13">
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
         <v>97</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
+      <c r="G26" s="14"/>
+      <c r="H26" s="18">
+        <f>F26*G26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="14">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1</v>
+      </c>
+      <c r="G27" s="34">
+        <v>1</v>
+      </c>
+      <c r="H27" s="35">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="28" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="6">
-        <f>SUM(H5:H26)</f>
-        <v>0</v>
+      <c r="C28" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3">
+        <f>SUM(H5:H27)</f>
+        <v>71.400000000000006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E12:E26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I21" r:id="rId1" xr:uid="{641535E9-5D6D-4000-A937-F9634DC6744A}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{45BB14BF-3CCF-4EF4-B743-710795BAEB32}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{0A1B94DF-7B3F-4569-8823-3905FE9AE3A4}"/>
+    <hyperlink ref="I27" r:id="rId4" xr:uid="{96A8F388-5EF0-4551-8AA6-207551A96CB8}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{EEBE3A78-7F87-4A87-9EB6-7A303B200441}"/>
+    <hyperlink ref="I21" r:id="rId6" xr:uid="{F2C15AA0-978F-4FBD-B221-99049ECD44AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1910,7 +2360,7 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,12 +2370,12 @@
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="37">
-        <f>'RCK v0.1'!H26+'RCK v1.0'!H28</f>
-        <v>6.5</v>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10">
+        <f>'RCK v0.1'!H27+'RCK v1.0'!H28</f>
+        <v>83.5</v>
       </c>
     </row>
   </sheetData>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29CA386-66C8-452C-87D9-0DDF61B1C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF3CC0-77FE-49FB-9082-D2E95161869E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="5160" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
@@ -929,6 +929,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,69 +1029,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1354,7 @@
   <dimension ref="C1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,16 +1372,16 @@
   <sheetData>
     <row r="1" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1411,10 +1411,10 @@
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="62" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="36" t="s">
@@ -1426,19 +1426,19 @@
       <c r="G5" s="36">
         <v>16</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="45">
         <v>3.78</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="45">
         <v>0.73</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="74"/>
-      <c r="D6" s="76"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1448,13 +1448,13 @@
       <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="62"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="74"/>
-      <c r="D7" s="76"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1464,13 +1464,13 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="62"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1480,15 +1480,15 @@
       <c r="G8" s="8">
         <v>16</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="63"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1500,20 +1500,20 @@
       <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="51">
         <v>3.49</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="51">
         <v>0</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="54" t="s">
         <v>42</v>
       </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1523,13 +1523,13 @@
       <c r="G10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1539,9 +1539,9 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="69"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
@@ -1586,7 +1586,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="27">
-        <v>13.26</v>
+        <v>13.28</v>
       </c>
       <c r="I13" s="33">
         <v>0</v>
@@ -1804,10 +1804,10 @@
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="74" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1819,19 +1819,19 @@
       <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="55">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="I22" s="55">
+      <c r="H22" s="76">
+        <v>12.55</v>
+      </c>
+      <c r="I22" s="76">
         <v>0</v>
       </c>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="77" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="52"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="28" t="s">
         <v>65</v>
       </c>
@@ -1841,12 +1841,12 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="57"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="68" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -1867,12 +1867,12 @@
       <c r="I24" s="41">
         <v>0</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="70" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="48"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="18" t="s">
         <v>71</v>
       </c>
@@ -1885,13 +1885,9 @@
       <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="41">
-        <v>45.1</v>
-      </c>
-      <c r="I25" s="41">
-        <v>0</v>
-      </c>
-      <c r="J25" s="50"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -1952,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="42">
-        <v>8.4600000000000009</v>
+        <v>12.22</v>
       </c>
       <c r="I29" s="43">
         <v>0</v>
@@ -1968,7 +1964,7 @@
       </c>
       <c r="H31" s="3">
         <f>SUM(H5:H29)</f>
-        <v>147.4</v>
+        <v>99.82</v>
       </c>
       <c r="I31" s="38">
         <f>SUM(I5:I29)</f>
@@ -1976,14 +1972,22 @@
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="45">
+      <c r="H32" s="66">
         <f>SUM(H31:I31)</f>
-        <v>153.28</v>
-      </c>
-      <c r="I32" s="46"/>
+        <v>105.69999999999999</v>
+      </c>
+      <c r="I32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="J5:J8"/>
     <mergeCell ref="H9:H11"/>
@@ -1995,14 +1999,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF3CC0-77FE-49FB-9082-D2E95161869E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B63B67-0A10-47E8-A011-7C582020042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5160" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
   <sheets>
     <sheet name="RCK v1.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>PCB</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>32U4-AU</t>
-  </si>
-  <si>
-    <t>Envío</t>
   </si>
   <si>
     <t>Insertos tornillos</t>
@@ -323,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -705,41 +702,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -795,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,47 +849,65 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,45 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1351,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D5FC17-968F-4BF1-A881-90D470F45315}">
-  <dimension ref="C1:L32"/>
+  <dimension ref="C1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,25 +1308,23 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="57" t="s">
+    <row r="1" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="29" t="s">
         <v>55</v>
       </c>
@@ -1403,42 +1343,36 @@
       <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="33">
         <v>9</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <v>16</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="51">
         <v>3.78</v>
       </c>
-      <c r="I5" s="45">
-        <v>0.73</v>
-      </c>
-      <c r="J5" s="48" t="s">
+      <c r="I5" s="54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="61"/>
-      <c r="D6" s="63"/>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="67"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1448,13 +1382,12 @@
       <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="61"/>
-      <c r="D7" s="63"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="67"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1464,13 +1397,12 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="61"/>
-      <c r="D8" s="63"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="67"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1480,15 +1412,14 @@
       <c r="G8" s="8">
         <v>16</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="64" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="71" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1500,20 +1431,17 @@
       <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="51">
-        <v>3.49</v>
-      </c>
-      <c r="I9" s="51">
-        <v>0</v>
-      </c>
-      <c r="J9" s="54" t="s">
+      <c r="H9" s="57">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I9" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1523,13 +1451,12 @@
       <c r="G10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="55"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="61"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1539,11 +1466,10 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="59"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1556,20 +1482,17 @@
       <c r="F12" s="8">
         <v>99</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="34">
         <v>100</v>
       </c>
       <c r="H12" s="26">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I12" s="32">
-        <v>1.74</v>
-      </c>
-      <c r="J12" s="16" t="s">
+        <v>2.88</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1588,14 +1511,11 @@
       <c r="H13" s="27">
         <v>13.28</v>
       </c>
-      <c r="I13" s="33">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
@@ -1614,16 +1534,13 @@
       <c r="H14" s="26">
         <v>0.52</v>
       </c>
-      <c r="I14" s="32">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>23</v>
@@ -1637,17 +1554,14 @@
       <c r="G15" s="19">
         <v>14</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="35">
         <v>0.46</v>
       </c>
-      <c r="I15" s="40">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1666,14 +1580,11 @@
       <c r="H16" s="26">
         <v>0.37</v>
       </c>
-      <c r="I16" s="32">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
@@ -1689,17 +1600,14 @@
       <c r="G17" s="19">
         <v>2</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I17" s="40">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
@@ -1718,14 +1626,11 @@
       <c r="H18" s="26">
         <v>0.67</v>
       </c>
-      <c r="I18" s="32">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
@@ -1741,17 +1646,14 @@
       <c r="G19" s="19">
         <v>2</v>
       </c>
-      <c r="H19" s="39">
-        <v>12.86</v>
-      </c>
-      <c r="I19" s="40">
-        <v>3.41</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="35">
+        <v>16.27</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1767,17 +1669,14 @@
       <c r="G20" s="8">
         <v>2</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="32">
         <v>0.47</v>
       </c>
-      <c r="I20" s="35">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="17" t="s">
         <v>1</v>
       </c>
@@ -1793,25 +1692,22 @@
       <c r="G21" s="19">
         <v>110</v>
       </c>
-      <c r="H21" s="41">
-        <v>31.36</v>
-      </c>
-      <c r="I21" s="41">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30" t="s">
+      <c r="H21" s="36">
+        <v>30.14</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="72" t="s">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>67</v>
+      <c r="D22" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="8">
         <v>4</v>
@@ -1819,21 +1715,18 @@
       <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="48">
         <v>12.55</v>
       </c>
-      <c r="I22" s="76">
-        <v>0</v>
-      </c>
-      <c r="J22" s="77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="73"/>
-      <c r="D23" s="75"/>
+      <c r="I22" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="45"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="8">
         <v>1</v>
@@ -1841,19 +1734,18 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="68" t="s">
+      <c r="H23" s="48"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="19">
         <v>1</v>
@@ -1861,23 +1753,20 @@
       <c r="G24" s="19">
         <v>5</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="36">
         <v>6.5</v>
       </c>
-      <c r="I24" s="41">
-        <v>0</v>
-      </c>
-      <c r="J24" s="70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="69"/>
+      <c r="I24" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="41"/>
       <c r="D25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -1885,11 +1774,10 @@
       <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="71"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="36"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>3</v>
       </c>
@@ -1899,11 +1787,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="44"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="32"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="17" t="s">
         <v>4</v>
       </c>
@@ -1913,11 +1800,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="19"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="36"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1928,10 +1814,9 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="24">
         <v>1</v>
@@ -1947,68 +1832,57 @@
       <c r="G29" s="24">
         <v>1</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="37">
         <v>12.22</v>
       </c>
-      <c r="I29" s="43">
-        <v>0</v>
-      </c>
-      <c r="J29" s="25" t="s">
+      <c r="I29" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="3">
         <f>SUM(H5:H29)</f>
-        <v>99.82</v>
-      </c>
-      <c r="I31" s="38">
-        <f>SUM(I5:I29)</f>
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="66">
-        <f>SUM(H31:I31)</f>
-        <v>105.69999999999999</v>
-      </c>
-      <c r="I32" s="67"/>
+        <v>104.48</v>
+      </c>
+      <c r="I31" s="72"/>
+    </row>
+    <row r="32" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="39">
+        <f>SUM(H31:H31)</f>
+        <v>104.48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H32:I32"/>
+  <mergeCells count="15">
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>
-    <hyperlink ref="J13" r:id="rId2" xr:uid="{45BB14BF-3CCF-4EF4-B743-710795BAEB32}"/>
-    <hyperlink ref="J9" r:id="rId3" xr:uid="{0A1B94DF-7B3F-4569-8823-3905FE9AE3A4}"/>
-    <hyperlink ref="J29" r:id="rId4" xr:uid="{96A8F388-5EF0-4551-8AA6-207551A96CB8}"/>
-    <hyperlink ref="J21" r:id="rId5" xr:uid="{F2C15AA0-978F-4FBD-B221-99049ECD44AA}"/>
-    <hyperlink ref="J19" r:id="rId6" xr:uid="{AFE4104E-F5C1-486D-9E41-A8A53BA24F9D}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{40FFE935-2813-4584-9C8B-32017E0EB52F}"/>
-    <hyperlink ref="J24" r:id="rId8" xr:uid="{7146560A-5F32-450C-8A4D-7A70F8B46834}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{45BB14BF-3CCF-4EF4-B743-710795BAEB32}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{0A1B94DF-7B3F-4569-8823-3905FE9AE3A4}"/>
+    <hyperlink ref="I29" r:id="rId4" xr:uid="{96A8F388-5EF0-4551-8AA6-207551A96CB8}"/>
+    <hyperlink ref="I21" r:id="rId5" xr:uid="{F2C15AA0-978F-4FBD-B221-99049ECD44AA}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{AFE4104E-F5C1-486D-9E41-A8A53BA24F9D}"/>
+    <hyperlink ref="I22" r:id="rId7" xr:uid="{40FFE935-2813-4584-9C8B-32017E0EB52F}"/>
+    <hyperlink ref="I24" r:id="rId8" xr:uid="{7146560A-5F32-450C-8A4D-7A70F8B46834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B63B67-0A10-47E8-A011-7C582020042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201196E-548B-4489-B0D2-E14AF54D7CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
@@ -876,39 +876,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,7 +940,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1296,7 +1296,7 @@
   <dimension ref="C1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,15 +1313,15 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1348,10 +1348,10 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="58" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -1363,16 +1363,16 @@
       <c r="G5" s="33">
         <v>16</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="41">
         <v>3.78</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="67"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1382,12 +1382,12 @@
       <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1397,12 +1397,12 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="67"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1412,14 +1412,14 @@
       <c r="G8" s="8">
         <v>16</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1431,17 +1431,17 @@
       <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="47">
         <v>4.2300000000000004</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="50" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1451,12 +1451,12 @@
       <c r="G10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="61"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="62"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
@@ -1700,10 +1700,10 @@
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="68" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1715,16 +1715,16 @@
       <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="70">
         <v>12.55</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="71" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="45"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="28" t="s">
         <v>64</v>
       </c>
@@ -1734,11 +1734,11 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="62" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -1756,12 +1756,12 @@
       <c r="H24" s="36">
         <v>6.5</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="64" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="41"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="18" t="s">
         <v>70</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="36"/>
-      <c r="I25" s="43"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -1848,7 +1848,7 @@
         <f>SUM(H5:H29)</f>
         <v>104.48</v>
       </c>
-      <c r="I31" s="72"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="39">
@@ -1858,6 +1858,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="H9:H11"/>
@@ -1867,12 +1873,6 @@
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201196E-548B-4489-B0D2-E14AF54D7CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4985E32-17A8-423A-BD35-9149A0743A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
+    <workbookView xWindow="-28920" yWindow="1920" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
   <sheets>
     <sheet name="RCK v1.0" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>22uF</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>https://jlcpcb.com/</t>
+  </si>
+  <si>
+    <t>22pF</t>
   </si>
 </sst>
 </file>
@@ -877,6 +877,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,39 +971,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D5FC17-968F-4BF1-A881-90D470F45315}">
   <dimension ref="C1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,23 +1313,23 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>16</v>
@@ -1338,7 +1338,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>17</v>
@@ -1348,10 +1348,10 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="69" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -1363,18 +1363,18 @@
       <c r="G5" s="33">
         <v>16</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="52">
         <v>3.78</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>41</v>
+      <c r="I5" s="55" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="57"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
@@ -1382,12 +1382,12 @@
       <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="45"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="57"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1397,14 +1397,14 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="45"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="57"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
@@ -1412,18 +1412,18 @@
       <c r="G8" s="8">
         <v>16</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="46"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="72" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5">
         <v>8</v>
@@ -1431,19 +1431,19 @@
       <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="58">
         <v>4.2300000000000004</v>
       </c>
-      <c r="I9" s="50" t="s">
-        <v>42</v>
+      <c r="I9" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5">
         <v>4</v>
@@ -1451,14 +1451,14 @@
       <c r="G10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1466,8 +1466,8 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="63"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
@@ -1477,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="8">
         <v>99</v>
@@ -1489,7 +1489,7 @@
         <v>2.88</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5">
         <v>99</v>
@@ -1512,7 +1512,7 @@
         <v>13.28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="8">
         <v>14</v>
@@ -1535,18 +1535,18 @@
         <v>0.52</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="19">
         <v>14</v>
@@ -1558,7 +1558,7 @@
         <v>0.46</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
@@ -1566,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="8">
         <v>2</v>
@@ -1581,7 +1581,7 @@
         <v>0.37</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="19">
         <v>2</v>
@@ -1604,7 +1604,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0.67</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -1635,10 +1635,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="F19" s="19">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>16.27</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
@@ -1673,7 +1673,7 @@
         <v>0.47</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1681,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="19">
         <v>99</v>
@@ -1696,18 +1696,18 @@
         <v>30.14</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>66</v>
+      <c r="C22" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="8">
         <v>4</v>
@@ -1715,18 +1715,18 @@
       <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="49">
         <v>12.55</v>
       </c>
-      <c r="I22" s="71" t="s">
-        <v>65</v>
+      <c r="I22" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="67"/>
-      <c r="D23" s="69"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="8">
         <v>1</v>
@@ -1734,18 +1734,18 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="72"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="19">
         <v>1</v>
@@ -1756,17 +1756,17 @@
       <c r="H24" s="36">
         <v>6.5</v>
       </c>
-      <c r="I24" s="64" t="s">
-        <v>71</v>
+      <c r="I24" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="63"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="36"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -1821,10 +1821,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="24">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>12.22</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1858,12 +1858,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="H9:H11"/>
@@ -1873,6 +1867,12 @@
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4985E32-17A8-423A-BD35-9149A0743A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD40FCFF-2094-4649-84AB-4B2738C6A671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1920" windowWidth="29040" windowHeight="15840" xr2:uid="{E375E285-8F85-42C4-8603-06EDA8FA43E9}"/>
   </bookViews>
@@ -877,39 +877,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +938,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D5FC17-968F-4BF1-A881-90D470F45315}">
   <dimension ref="C1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,15 +1313,15 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1348,10 +1348,10 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="58" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -1363,16 +1363,16 @@
       <c r="G5" s="33">
         <v>16</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="41">
         <v>3.78</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="68"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
@@ -1382,12 +1382,12 @@
       <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="68"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1397,12 +1397,12 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="8" t="s">
         <v>71</v>
       </c>
@@ -1412,14 +1412,14 @@
       <c r="G8" s="8">
         <v>16</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1431,17 +1431,17 @@
       <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="47">
         <v>4.2300000000000004</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="50" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1451,12 +1451,12 @@
       <c r="G10" s="5">
         <v>20</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="62"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="G11" s="5">
         <v>20</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
@@ -1700,10 +1700,10 @@
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="68" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1715,16 +1715,16 @@
       <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="70">
         <v>12.55</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="71" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="28" t="s">
         <v>63</v>
       </c>
@@ -1734,11 +1734,11 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="51"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="62" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -1756,12 +1756,12 @@
       <c r="H24" s="36">
         <v>6.5</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="64" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="42"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="18" t="s">
         <v>69</v>
       </c>
@@ -1774,8 +1774,10 @@
       <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="44"/>
+      <c r="H25" s="36">
+        <v>38.94</v>
+      </c>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -1846,18 +1848,24 @@
       </c>
       <c r="H31" s="3">
         <f>SUM(H5:H29)</f>
-        <v>104.48</v>
+        <v>143.41999999999999</v>
       </c>
       <c r="I31" s="40"/>
     </row>
     <row r="32" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="39">
         <f>SUM(H31:H31)</f>
-        <v>104.48</v>
+        <v>143.41999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="H9:H11"/>
@@ -1867,12 +1875,6 @@
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{1AEBCBEE-4BEB-4EAB-A7FB-C675A1B10379}"/>
